--- a/Project Documents/Group 1 Team CBA - MITR.xlsx
+++ b/Project Documents/Group 1 Team CBA - MITR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rpiexchange-my.sharepoint.com/personal/manicb_rpi_edu/Documents/Desktop/MITR/MITR-RCC-Project/Project Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{75433BCC-CB93-4DCB-BF4D-E73F81BE1517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC1BAFC-9DE7-41EF-99FB-DB7FCB15E748}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217AA3D-F971-450D-8062-E73348C8C2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>CBA Term Project</t>
   </si>
@@ -251,19 +251,245 @@
   </si>
   <si>
     <t>Internal Rate of Return</t>
+  </si>
+  <si>
+    <t>Risk Category</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Probability of Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact </t>
+  </si>
+  <si>
+    <t>Weight of Risk
+ (% of all impacts)</t>
+  </si>
+  <si>
+    <t>Probability * Impact $$</t>
+  </si>
+  <si>
+    <t>Probability*Impact Score 
+Assuming 0-3 Range
+Rounded to Whole Number</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Level of Complexity</t>
+  </si>
+  <si>
+    <t>Level of Customization</t>
+  </si>
+  <si>
+    <t>Configuration Detail</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Data Specificity</t>
+  </si>
+  <si>
+    <t>Cybersecurity threats</t>
+  </si>
+  <si>
+    <t>Organizational Complexity</t>
+  </si>
+  <si>
+    <t>Regulatory compliance</t>
+  </si>
+  <si>
+    <t>Lack of User Acceptance</t>
+  </si>
+  <si>
+    <t>Change in Requirements</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Integration Faults</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Score (0-3)</t>
+  </si>
+  <si>
+    <t>Weighted Score</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Technology Risk</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low </t>
+  </si>
+  <si>
+    <t>The team is unable to implement the necessary technologies to construct the requried front end and back-end.</t>
+  </si>
+  <si>
+    <t>The team is unable to provide the correct tools to upload profiles and CTF challenges</t>
+  </si>
+  <si>
+    <t>Security Risk</t>
+  </si>
+  <si>
+    <t>Categories in the website is not broad/specifc enough to encompass all CTF challenges.</t>
+  </si>
+  <si>
+    <t>Product has cybersecurity exploits that can steal CTF data or login data.</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Medium amount</t>
+  </si>
+  <si>
+    <t>None units</t>
+  </si>
+  <si>
+    <t>Website does not follow regulatory compliance from RPI</t>
+  </si>
+  <si>
+    <t>RCC does not accept using the product.</t>
+  </si>
+  <si>
+    <t>Most/All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some </t>
+  </si>
+  <si>
+    <t>Few</t>
+  </si>
+  <si>
+    <t>Client changes the requirements of the website</t>
+  </si>
+  <si>
+    <t>Schedule very Busy</t>
+  </si>
+  <si>
+    <t>Schedule Midly Busy</t>
+  </si>
+  <si>
+    <t>Schedule Free</t>
+  </si>
+  <si>
+    <t>Team members are unable to have time to complete the project.</t>
+  </si>
+  <si>
+    <t>Implementation Risk</t>
+  </si>
+  <si>
+    <t>Integration faults</t>
+  </si>
+  <si>
+    <t>RPI login system is compatible with our site/Dotcio does not allow our site.</t>
+  </si>
+  <si>
+    <t>Risk Index (0-100)</t>
+  </si>
+  <si>
+    <t>Sum = 10</t>
+  </si>
+  <si>
+    <t>The following chart can be used to calculate Discount Rate</t>
+  </si>
+  <si>
+    <t>Risk Index</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>90 - 100</t>
+  </si>
+  <si>
+    <t>80 - 89</t>
+  </si>
+  <si>
+    <t>70 - 79</t>
+  </si>
+  <si>
+    <t>60 - 69</t>
+  </si>
+  <si>
+    <t>50 - 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 - 49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 - 39 </t>
+  </si>
+  <si>
+    <t>20 - 29</t>
+  </si>
+  <si>
+    <t>10 - 19</t>
+  </si>
+  <si>
+    <t>0 - 9</t>
+  </si>
+  <si>
+    <t>Configuration of the site is misaligned and not working in its parameters</t>
+  </si>
+  <si>
+    <t>Explanation of risk above</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -324,8 +550,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +641,46 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -352,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,6 +707,216 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -589,20 +1136,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +1158,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -622,7 +1170,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -646,7 +1194,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +1221,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -695,7 +1243,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -727,7 +1275,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -741,7 +1289,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -772,7 +1320,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -799,7 +1347,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -826,7 +1374,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -853,7 +1401,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -886,7 +1434,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -901,7 +1449,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -929,7 +1477,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -957,7 +1505,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -985,7 +1533,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1559,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1586,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1070,7 +1618,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1647,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1676,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1691,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.1</v>
       </c>
@@ -1163,7 +1711,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.35</v>
       </c>
@@ -1183,7 +1731,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="12"/>
       <c r="C25" s="2"/>
@@ -1195,7 +1743,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1207,60 +1755,998 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+    <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>3.3333333330000001</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="33">
+        <v>3</v>
+      </c>
+      <c r="F28" s="33">
+        <v>2</v>
+      </c>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="35">
+        <f>SUM(B30:B32)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="37">
+        <f>SUM(D30:D32)</f>
+        <v>10.333333332300001</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="39"/>
       <c r="J29" s="2"/>
     </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="42">
+        <v>1</v>
+      </c>
+      <c r="D30" s="43">
+        <f>C30*$B$27*B30</f>
+        <v>1.6666666665000001</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="42">
+        <v>1</v>
+      </c>
+      <c r="D31" s="43">
+        <f t="shared" ref="D31:D32" si="7">C31*$B$27*B31</f>
+        <v>0.66666666660000007</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="C32" s="42">
+        <v>3</v>
+      </c>
+      <c r="D32" s="43">
+        <f t="shared" si="7"/>
+        <v>7.9999999991999999</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="35">
+        <f>SUM(B35:B36)</f>
+        <v>3.6</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="37">
+        <f>SUM(D35:D36)</f>
+        <v>35.9999999964</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="41">
+        <v>1.6</v>
+      </c>
+      <c r="C35" s="42">
+        <v>3</v>
+      </c>
+      <c r="D35" s="43">
+        <f>C35*$B$27*B35</f>
+        <v>15.9999999984</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="41">
+        <v>2</v>
+      </c>
+      <c r="C36" s="42">
+        <v>3</v>
+      </c>
+      <c r="D36" s="43">
+        <f>C36*$B$27*B36</f>
+        <v>19.999999998</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="35">
+        <f>SUM(B39:B42)</f>
+        <v>3.7</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="37">
+        <f>SUM(D39:D42)</f>
+        <v>18.999999998100002</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="49">
+        <v>1.2</v>
+      </c>
+      <c r="C39" s="50">
+        <v>2</v>
+      </c>
+      <c r="D39" s="43">
+        <f>C39*$B$27*B39</f>
+        <v>7.9999999991999999</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="C40" s="50">
+        <v>2</v>
+      </c>
+      <c r="D40" s="43">
+        <f t="shared" ref="D40:D42" si="8">C40*$B$27*B40</f>
+        <v>5.3333333328000005</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="49">
+        <v>1.2</v>
+      </c>
+      <c r="C41" s="52">
+        <v>1</v>
+      </c>
+      <c r="D41" s="43">
+        <f t="shared" si="8"/>
+        <v>3.9999999996</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="50">
+        <v>1</v>
+      </c>
+      <c r="D42" s="43">
+        <f t="shared" si="8"/>
+        <v>1.6666666665000001</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="35">
+        <f>SUM(B45)</f>
+        <v>1.2</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="37">
+        <f>SUM(D45)</f>
+        <v>7.9999999991999999</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="39"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="55">
+        <v>1.2</v>
+      </c>
+      <c r="C45" s="56">
+        <v>2</v>
+      </c>
+      <c r="D45" s="43">
+        <f>C45*$B$27*B45</f>
+        <v>7.9999999991999999</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="63"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67">
+        <f>SUM(D43,D38,D34,D29)</f>
+        <v>73.333333326000002</v>
+      </c>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
+      <c r="B48" s="26">
+        <f>B43+B38+B34+B29</f>
+        <v>10</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="71">
+        <f>SUM(B29:B45)</f>
+        <v>19.999999999999996</v>
+      </c>
+      <c r="B49" s="71"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K52" s="20">
+        <v>100</v>
+      </c>
+      <c r="L52" s="19">
+        <f>ROUNDUP(K52/$K$63,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="M52" s="20">
+        <f>J52*K52</f>
+        <v>30</v>
+      </c>
+      <c r="N52" s="23">
+        <v>1</v>
+      </c>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="74"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="77">
+        <v>0.4</v>
+      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K53" s="20">
+        <v>50</v>
+      </c>
+      <c r="L53" s="19">
+        <f t="shared" ref="L53:L61" si="9">ROUNDUP(K53/$K$63,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="M53" s="20">
+        <f t="shared" ref="M53:M61" si="10">J53*K53</f>
+        <v>10</v>
+      </c>
+      <c r="N53" s="24">
+        <v>1</v>
+      </c>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="74"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="77">
+        <v>0.3</v>
+      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="K54" s="20">
+        <v>200</v>
+      </c>
+      <c r="L54" s="19">
+        <f t="shared" ref="L54:L60" si="11">ROUNDDOWN(K54/$K$63,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="M54" s="20">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="N54" s="23">
+        <v>3</v>
+      </c>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="74"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K55" s="20">
+        <v>400</v>
+      </c>
+      <c r="L55" s="19">
+        <f t="shared" si="11"/>
+        <v>0.16</v>
+      </c>
+      <c r="M55" s="20">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="N55" s="23">
+        <v>3</v>
+      </c>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="74"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="77">
+        <v>0.16</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K56" s="20">
+        <v>500</v>
+      </c>
+      <c r="L56" s="19">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="M56" s="20">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="N56" s="23">
+        <v>3</v>
+      </c>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="78"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="77">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K57" s="20">
+        <v>300</v>
+      </c>
+      <c r="L57" s="19">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+      <c r="M57" s="20">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="N57" s="23">
+        <v>2</v>
+      </c>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="78"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="77">
+        <v>0.12</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J58" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K58" s="20">
+        <v>200</v>
+      </c>
+      <c r="L58" s="19">
+        <f t="shared" si="11"/>
+        <v>0.08</v>
+      </c>
+      <c r="M58" s="20">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="N58" s="23">
+        <v>2</v>
+      </c>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="79"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="77">
+        <v>0.08</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+      <c r="J59" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K59" s="20">
+        <v>300</v>
+      </c>
+      <c r="L59" s="19">
+        <f t="shared" si="11"/>
+        <v>0.12</v>
+      </c>
+      <c r="M59" s="20">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="N59" s="23">
+        <v>1</v>
+      </c>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="79"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="77">
+        <v>0.06</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K60" s="20">
+        <v>100</v>
+      </c>
+      <c r="L60" s="19">
+        <f t="shared" si="11"/>
+        <v>0.04</v>
+      </c>
+      <c r="M60" s="20">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="N60" s="23">
+        <v>1</v>
+      </c>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="79"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="77">
+        <v>0.04</v>
+      </c>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K61" s="20">
+        <v>300</v>
+      </c>
+      <c r="L61" s="19">
+        <f>ROUNDDOWN(K61/$K$63,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="M61" s="20">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="N61" s="23">
+        <v>2</v>
+      </c>
+      <c r="O61" s="21"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H63" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" s="20">
+        <f>SUM(K52:K61)</f>
+        <v>2450</v>
+      </c>
+      <c r="L63" s="19">
+        <f>SUM(L52:L61)</f>
+        <v>1</v>
+      </c>
+      <c r="M63" s="20"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A49:B49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003464484D0C360A40AF77D5C66939F595" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aed76de4be4a95df9a7b631dcf6d49df">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9392a558-f998-4c52-9879-76813e889e56" xmlns:ns4="637bf4fa-d8b4-4807-8184-b158808b27be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bd00252ac23e977623ead2ac626c119" ns3:_="" ns4:_="">
     <xsd:import namespace="9392a558-f998-4c52-9879-76813e889e56"/>
@@ -1443,32 +2929,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA92F263-4EA8-4BDD-8F77-C9F81D9D771D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5223E04-D98F-4340-A226-39655CF2A234}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1485,4 +2963,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA92F263-4EA8-4BDD-8F77-C9F81D9D771D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project Documents/Group 1 Team CBA - MITR.xlsx
+++ b/Project Documents/Group 1 Team CBA - MITR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4217AA3D-F971-450D-8062-E73348C8C2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA919E0E-F0BD-435A-AA5C-881907FF4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
   <si>
     <t>CBA Term Project</t>
   </si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>Configuration of the site is misaligned and not working in its parameters</t>
-  </si>
-  <si>
-    <t>Explanation of risk above</t>
   </si>
 </sst>
 </file>
@@ -689,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -713,9 +710,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -882,38 +876,34 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1136,10 +1126,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1138,7 @@
     <col min="2" max="6" width="17.453125" customWidth="1"/>
     <col min="7" max="7" width="15.26953125" customWidth="1"/>
     <col min="9" max="9" width="22.90625" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
@@ -1756,238 +1747,238 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B27">
         <v>3.3333333330000001</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="28"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="32">
         <v>3</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="32">
         <v>2</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <v>1</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="32">
         <v>0</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="28" t="s">
         <v>54</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="34">
         <f>SUM(B30:B32)</f>
         <v>1.5</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <f>SUM(D30:D32)</f>
         <v>10.333333332300001</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="40">
         <v>0.5</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>1</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="42">
         <f>C30*$B$27*B30</f>
         <v>1.6666666665000001</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="40">
         <v>0.2</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="41">
         <v>1</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="42">
         <f t="shared" ref="D31:D32" si="7">C31*$B$27*B31</f>
         <v>0.66666666660000007</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="44" t="s">
+      <c r="H31" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="44" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="40">
         <v>0.8</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>3</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="42">
         <f t="shared" si="7"/>
         <v>7.9999999991999999</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="39"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="34">
         <f>SUM(B35:B36)</f>
         <v>3.6</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <f>SUM(D35:D36)</f>
         <v>35.9999999964</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="39"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="40">
         <v>1.6</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="41">
         <v>3</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="42">
         <f>C35*$B$27*B35</f>
         <v>15.9999999984</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="47" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1995,129 +1986,129 @@
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="40">
         <v>2</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>3</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="42">
         <f>C36*$B$27*B36</f>
         <v>19.999999998</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="39"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="34">
         <f>SUM(B39:B42)</f>
         <v>3.7</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="36">
         <f>SUM(D39:D42)</f>
         <v>18.999999998100002</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="48">
         <v>1.2</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="49">
         <v>2</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="42">
         <f>C39*$B$27*B39</f>
         <v>7.9999999991999999</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="47" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="48">
         <v>0.8</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="49">
         <v>2</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="42">
         <f t="shared" ref="D40:D42" si="8">C40*$B$27*B40</f>
         <v>5.3333333328000005</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="47" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2125,617 +2116,590 @@
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="48">
         <v>1.2</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="51">
         <v>1</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="42">
         <f t="shared" si="8"/>
         <v>3.9999999996</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="48">
         <v>0.5</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="49">
         <v>1</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="42">
         <f t="shared" si="8"/>
         <v>1.6666666665000001</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="51" t="s">
+      <c r="H42" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="34">
         <f>SUM(B45)</f>
         <v>1.2</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <f>SUM(D45)</f>
         <v>7.9999999991999999</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="38" t="s">
+      <c r="H43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="39"/>
+      <c r="I43" s="38"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="55">
+      <c r="B45" s="54">
         <v>1.2</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="55">
         <v>2</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="42">
         <f>C45*$B$27*B45</f>
         <v>7.9999999991999999</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="G45" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="63"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67">
+      <c r="C47" s="65"/>
+      <c r="D47" s="66">
         <f>SUM(D43,D38,D34,D29)</f>
         <v>73.333333326000002</v>
       </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="69"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="26">
-        <f>B43+B38+B34+B29</f>
+      <c r="A48" s="69"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="J50" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="M50" s="19">
+        <v>100</v>
+      </c>
+      <c r="N50" s="18">
+        <f>ROUNDUP(M50/$M$61,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="O50" s="19">
+        <f>L50*M50</f>
+        <v>30</v>
+      </c>
+      <c r="P50" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="J51" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="M51" s="19">
+        <v>50</v>
+      </c>
+      <c r="N51" s="18">
+        <f>ROUNDUP(M51/$M$61,2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="O51" s="19">
+        <f t="shared" ref="O51:O59" si="9">L51*M51</f>
         <v>10</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="28"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="71">
-        <f>SUM(B29:B45)</f>
-        <v>19.999999999999996</v>
-      </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="28"/>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="81" t="s">
+      <c r="P51" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="J52" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K52" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="M52" s="19">
+        <v>200</v>
+      </c>
+      <c r="N52" s="18">
+        <f>ROUNDDOWN(M52/$M$61,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="O52" s="19">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="P52" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="J53" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="M53" s="19">
+        <v>400</v>
+      </c>
+      <c r="N53" s="18">
+        <f>ROUNDDOWN(M53/$M$61,2)</f>
+        <v>0.16</v>
+      </c>
+      <c r="O53" s="19">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="P53" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="J54" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="M54" s="19">
+        <v>500</v>
+      </c>
+      <c r="N54" s="18">
+        <f>ROUNDDOWN(M54/$M$61,2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="O54" s="19">
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="16" t="s">
+      <c r="P54" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="75">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="J55" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="M55" s="19">
+        <v>300</v>
+      </c>
+      <c r="N55" s="18">
+        <f>ROUNDDOWN(M55/$M$61,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="O55" s="19">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="P55" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="72"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="75">
+        <v>0.16</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="J56" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="M56" s="19">
+        <v>200</v>
+      </c>
+      <c r="N56" s="18">
+        <f>ROUNDDOWN(M56/$M$61,2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="O56" s="19">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="P56" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="76"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="75">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="J57" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M57" s="19">
+        <v>300</v>
+      </c>
+      <c r="N57" s="18">
+        <f>ROUNDDOWN(M57/$M$61,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="O57" s="19">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="L51" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O51" s="17"/>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J52" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="K52" s="20">
+      <c r="P57" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="76"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="75">
+        <v>0.12</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="J58" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M58" s="19">
         <v>100</v>
       </c>
-      <c r="L52" s="19">
-        <f>ROUNDUP(K52/$K$63,2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="M52" s="20">
-        <f>J52*K52</f>
-        <v>30</v>
-      </c>
-      <c r="N52" s="23">
+      <c r="N58" s="18">
+        <f>ROUNDDOWN(M58/$M$61,2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="O58" s="19">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="P58" s="22">
         <v>1</v>
       </c>
-      <c r="O52" s="21"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="74"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="77">
-        <v>0.4</v>
-      </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" s="19">
+    </row>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="77"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="J59" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L59" s="18">
         <v>0.2</v>
       </c>
-      <c r="K53" s="20">
-        <v>50</v>
-      </c>
-      <c r="L53" s="19">
-        <f t="shared" ref="L53:L61" si="9">ROUNDUP(K53/$K$63,2)</f>
-        <v>0.03</v>
-      </c>
-      <c r="M53" s="20">
-        <f t="shared" ref="M53:M61" si="10">J53*K53</f>
-        <v>10</v>
-      </c>
-      <c r="N53" s="24">
+      <c r="M59" s="19">
+        <v>300</v>
+      </c>
+      <c r="N59" s="18">
+        <f>ROUNDDOWN(M59/$M$61,2)</f>
+        <v>0.12</v>
+      </c>
+      <c r="O59" s="19">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="P59" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="77"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="75">
+        <v>0.06</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="P60" s="20"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="77"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="75">
+        <v>0.04</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="J61" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" s="19">
+        <f>SUM(M50:M59)</f>
+        <v>2450</v>
+      </c>
+      <c r="N61" s="18">
+        <f>SUM(N50:N59)</f>
         <v>1</v>
       </c>
-      <c r="O53" s="21"/>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="74"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="77">
-        <v>0.3</v>
-      </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J54" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="K54" s="20">
-        <v>200</v>
-      </c>
-      <c r="L54" s="19">
-        <f t="shared" ref="L54:L60" si="11">ROUNDDOWN(K54/$K$63,2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="M54" s="20">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="N54" s="23">
-        <v>3</v>
-      </c>
-      <c r="O54" s="21"/>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="74"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="77">
-        <v>0.2</v>
-      </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K55" s="20">
-        <v>400</v>
-      </c>
-      <c r="L55" s="19">
-        <f t="shared" si="11"/>
-        <v>0.16</v>
-      </c>
-      <c r="M55" s="20">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="N55" s="23">
-        <v>3</v>
-      </c>
-      <c r="O55" s="21"/>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="74"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="77">
-        <v>0.16</v>
-      </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I56" t="s">
-        <v>40</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K56" s="20">
-        <v>500</v>
-      </c>
-      <c r="L56" s="19">
-        <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="M56" s="20">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="N56" s="23">
-        <v>3</v>
-      </c>
-      <c r="O56" s="21"/>
-    </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="78"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="77">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" t="s">
-        <v>42</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K57" s="20">
-        <v>300</v>
-      </c>
-      <c r="L57" s="19">
-        <f t="shared" si="11"/>
-        <v>0.12</v>
-      </c>
-      <c r="M57" s="20">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="N57" s="23">
-        <v>2</v>
-      </c>
-      <c r="O57" s="21"/>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="78"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="77">
-        <v>0.12</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J58" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K58" s="20">
-        <v>200</v>
-      </c>
-      <c r="L58" s="19">
-        <f t="shared" si="11"/>
-        <v>0.08</v>
-      </c>
-      <c r="M58" s="20">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="N58" s="23">
-        <v>2</v>
-      </c>
-      <c r="O58" s="21"/>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="79"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="77">
-        <v>0.08</v>
-      </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" t="s">
-        <v>44</v>
-      </c>
-      <c r="J59" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="K59" s="20">
-        <v>300</v>
-      </c>
-      <c r="L59" s="19">
-        <f t="shared" si="11"/>
-        <v>0.12</v>
-      </c>
-      <c r="M59" s="20">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="N59" s="23">
-        <v>1</v>
-      </c>
-      <c r="O59" s="21"/>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="79"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="77">
-        <v>0.06</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J60" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="K60" s="20">
-        <v>100</v>
-      </c>
-      <c r="L60" s="19">
-        <f t="shared" si="11"/>
-        <v>0.04</v>
-      </c>
-      <c r="M60" s="20">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="N60" s="23">
-        <v>1</v>
-      </c>
-      <c r="O60" s="21"/>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="79"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="77">
-        <v>0.04</v>
-      </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J61" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="K61" s="20">
-        <v>300</v>
-      </c>
-      <c r="L61" s="19">
-        <f>ROUNDDOWN(K61/$K$63,2)</f>
-        <v>0.12</v>
-      </c>
-      <c r="M61" s="20">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="N61" s="23">
-        <v>2</v>
-      </c>
-      <c r="O61" s="21"/>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H63" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K63" s="20">
-        <f>SUM(K52:K61)</f>
-        <v>2450</v>
-      </c>
-      <c r="L63" s="19">
-        <f>SUM(L52:L61)</f>
-        <v>1</v>
-      </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2747,6 +2711,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003464484D0C360A40AF77D5C66939F595" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aed76de4be4a95df9a7b631dcf6d49df">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9392a558-f998-4c52-9879-76813e889e56" xmlns:ns4="637bf4fa-d8b4-4807-8184-b158808b27be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bd00252ac23e977623ead2ac626c119" ns3:_="" ns4:_="">
     <xsd:import namespace="9392a558-f998-4c52-9879-76813e889e56"/>
@@ -2929,24 +2910,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA92F263-4EA8-4BDD-8F77-C9F81D9D771D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5223E04-D98F-4340-A226-39655CF2A234}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2963,29 +2952,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA92F263-4EA8-4BDD-8F77-C9F81D9D771D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Project Documents/Group 1 Team CBA - MITR.xlsx
+++ b/Project Documents/Group 1 Team CBA - MITR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA919E0E-F0BD-435A-AA5C-881907FF4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FAA9A9-21E4-499C-9FB4-B80151D3172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,8 +1128,8 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1472,9 +1472,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
-        <v>100</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6">
         <v>0</v>
       </c>
@@ -1489,7 +1487,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
@@ -1583,7 +1581,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ref="B19:F19" si="5">SUM(B14:B18)</f>
-        <v>1052</v>
+        <v>952</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="5"/>
@@ -1603,7 +1601,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="4"/>
-        <v>4713</v>
+        <v>4613</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
@@ -1615,7 +1613,7 @@
       </c>
       <c r="B20" s="6">
         <f>B12-B19</f>
-        <v>-1052</v>
+        <v>-952</v>
       </c>
       <c r="C20" s="6">
         <f>C12-C19</f>
@@ -1644,23 +1642,23 @@
       </c>
       <c r="B21" s="3">
         <f>B20</f>
-        <v>-1052</v>
+        <v>-952</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ref="C21:F21" si="6">B21+C20</f>
-        <v>-1526</v>
+        <v>-1426</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="6"/>
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="6"/>
-        <v>476</v>
+        <v>576</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="6"/>
-        <v>3027</v>
+        <v>3127</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
@@ -1688,11 +1686,11 @@
       </c>
       <c r="B23" s="14">
         <f>NPV(A23,C20:F20)+B20</f>
-        <v>1795.5964756505696</v>
+        <v>1895.5964756505696</v>
       </c>
       <c r="C23" s="11">
         <f>IRR(B20:F20)</f>
-        <v>0.4211043734524893</v>
+        <v>0.45660844349767116</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1708,11 +1706,11 @@
       </c>
       <c r="B24" s="4">
         <f>NPV(A24,C20:F20)+B20</f>
-        <v>239.211554998579</v>
+        <v>339.211554998579</v>
       </c>
       <c r="C24" s="11">
         <f>IRR(B20:F20)</f>
-        <v>0.4211043734524893</v>
+        <v>0.45660844349767116</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2398,7 +2396,7 @@
         <v>200</v>
       </c>
       <c r="N52" s="18">
-        <f>ROUNDDOWN(M52/$M$61,2)</f>
+        <f t="shared" ref="N52:N59" si="10">ROUNDDOWN(M52/$M$61,2)</f>
         <v>0.08</v>
       </c>
       <c r="O52" s="19">
@@ -2434,7 +2432,7 @@
         <v>400</v>
       </c>
       <c r="N53" s="18">
-        <f>ROUNDDOWN(M53/$M$61,2)</f>
+        <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
       <c r="O53" s="19">
@@ -2470,7 +2468,7 @@
         <v>500</v>
       </c>
       <c r="N54" s="18">
-        <f>ROUNDDOWN(M54/$M$61,2)</f>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="O54" s="19">
@@ -2506,7 +2504,7 @@
         <v>300</v>
       </c>
       <c r="N55" s="18">
-        <f>ROUNDDOWN(M55/$M$61,2)</f>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="O55" s="19">
@@ -2542,7 +2540,7 @@
         <v>200</v>
       </c>
       <c r="N56" s="18">
-        <f>ROUNDDOWN(M56/$M$61,2)</f>
+        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
       <c r="O56" s="19">
@@ -2578,7 +2576,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="18">
-        <f>ROUNDDOWN(M57/$M$61,2)</f>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="O57" s="19">
@@ -2614,7 +2612,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="18">
-        <f>ROUNDDOWN(M58/$M$61,2)</f>
+        <f t="shared" si="10"/>
         <v>0.04</v>
       </c>
       <c r="O58" s="19">
@@ -2650,7 +2648,7 @@
         <v>300</v>
       </c>
       <c r="N59" s="18">
-        <f>ROUNDDOWN(M59/$M$61,2)</f>
+        <f t="shared" si="10"/>
         <v>0.12</v>
       </c>
       <c r="O59" s="19">
@@ -2711,14 +2709,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2727,7 +2717,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003464484D0C360A40AF77D5C66939F595" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aed76de4be4a95df9a7b631dcf6d49df">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9392a558-f998-4c52-9879-76813e889e56" xmlns:ns4="637bf4fa-d8b4-4807-8184-b158808b27be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bd00252ac23e977623ead2ac626c119" ns3:_="" ns4:_="">
     <xsd:import namespace="9392a558-f998-4c52-9879-76813e889e56"/>
@@ -2910,24 +2900,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA92F263-4EA8-4BDD-8F77-C9F81D9D771D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2935,7 +2916,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5223E04-D98F-4340-A226-39655CF2A234}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2952,4 +2933,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Project Documents/Group 1 Team CBA - MITR.xlsx
+++ b/Project Documents/Group 1 Team CBA - MITR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael Chung\MITRE\MITR-RCC-Project\Project Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FAA9A9-21E4-499C-9FB4-B80151D3172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743495A8-999A-4AA0-8B19-711222C662AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
   </sheetPr>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1472,9 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <v>100</v>
+      </c>
       <c r="C15" s="6">
         <v>0</v>
       </c>
@@ -1487,7 +1489,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
@@ -1581,7 +1583,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ref="B19:F19" si="5">SUM(B14:B18)</f>
-        <v>952</v>
+        <v>1052</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="5"/>
@@ -1601,7 +1603,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="4"/>
-        <v>4613</v>
+        <v>4713</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
@@ -1613,7 +1615,7 @@
       </c>
       <c r="B20" s="6">
         <f>B12-B19</f>
-        <v>-952</v>
+        <v>-1052</v>
       </c>
       <c r="C20" s="6">
         <f>C12-C19</f>
@@ -1642,23 +1644,23 @@
       </c>
       <c r="B21" s="3">
         <f>B20</f>
-        <v>-952</v>
+        <v>-1052</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ref="C21:F21" si="6">B21+C20</f>
-        <v>-1426</v>
+        <v>-1526</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="6"/>
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="6"/>
-        <v>576</v>
+        <v>476</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="6"/>
-        <v>3127</v>
+        <v>3027</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
@@ -1686,11 +1688,11 @@
       </c>
       <c r="B23" s="14">
         <f>NPV(A23,C20:F20)+B20</f>
-        <v>1895.5964756505696</v>
+        <v>1795.5964756505696</v>
       </c>
       <c r="C23" s="11">
         <f>IRR(B20:F20)</f>
-        <v>0.45660844349767116</v>
+        <v>0.4211043734524893</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1706,11 +1708,11 @@
       </c>
       <c r="B24" s="4">
         <f>NPV(A24,C20:F20)+B20</f>
-        <v>339.211554998579</v>
+        <v>239.211554998579</v>
       </c>
       <c r="C24" s="11">
         <f>IRR(B20:F20)</f>
-        <v>0.45660844349767116</v>
+        <v>0.4211043734524893</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2718,6 +2720,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003464484D0C360A40AF77D5C66939F595" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aed76de4be4a95df9a7b631dcf6d49df">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9392a558-f998-4c52-9879-76813e889e56" xmlns:ns4="637bf4fa-d8b4-4807-8184-b158808b27be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bd00252ac23e977623ead2ac626c119" ns3:_="" ns4:_="">
     <xsd:import namespace="9392a558-f998-4c52-9879-76813e889e56"/>
@@ -2900,14 +2910,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9392a558-f998-4c52-9879-76813e889e56" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA92F263-4EA8-4BDD-8F77-C9F81D9D771D}">
   <ds:schemaRefs>
@@ -2917,6 +2919,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5223E04-D98F-4340-A226-39655CF2A234}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2933,21 +2952,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD634264-3B53-4770-BDFB-3CA228F6032C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9392a558-f998-4c52-9879-76813e889e56"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="637bf4fa-d8b4-4807-8184-b158808b27be"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>